--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
   <si>
     <t>accountId</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>cscResponseCode</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>021301000F3D0000%*4111********1111^SMITH/JOHN^*****************************?*8D40AD26E14C98F73B0210CD5F18A62ACF2B655EABC19BC10DAEEB870B42D6EADC20CE84E3677286B56D6F1CB7C4276C6BF10A91DB9E5947CA68AFD5884C2737312165237673628FB321C9B5F5094594C71F123CE8980E3482F3CB89629949003A0002E000E759D903</t>
   </si>
 </sst>
 </file>
@@ -572,7 +566,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,26 +743,38 @@
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4">
+        <v>30301</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5" t="s">
         <v>28</v>
       </c>
@@ -786,26 +792,38 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4">
+        <v>30301</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
         <v>32</v>
       </c>
@@ -917,13 +935,27 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L8" s="4">
         <v>33333</v>
       </c>
@@ -933,12 +965,8 @@
       <c r="N8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="R8" s="5" t="s">
         <v>41</v>
       </c>
@@ -956,13 +984,27 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L9" s="4">
         <v>44444</v>
       </c>
@@ -972,12 +1014,8 @@
       <c r="N9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="R9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1007,9 +1045,15 @@
       <c r="H10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5" t="s">
         <v>22</v>
@@ -1049,9 +1093,15 @@
       <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="5" t="s">
         <v>22</v>
@@ -1079,13 +1129,27 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5" t="s">
         <v>22</v>
@@ -1093,12 +1157,8 @@
       <c r="N12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="S12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1119,13 +1179,27 @@
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="5" t="s">
         <v>22</v>
@@ -1133,12 +1207,8 @@
       <c r="N13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="S13" s="5" t="s">
         <v>43</v>
       </c>
